--- a/rqfs finales.xlsx
+++ b/rqfs finales.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nojam\OneDrive\Documentos\GitHub\proyectoIngDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Sebastian\Documents\GitHub\proyectoIngDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1691369-866F-49D8-B81B-950D3CAE2659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90A7C4C-4F95-474E-A69F-8AD91BC6FF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B15CCC9B-E64A-4EC0-B5BE-4ECC429B4BB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B15CCC9B-E64A-4EC0-B5BE-4ECC429B4BB3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="4" r:id="rId1"/>
+    <sheet name="RQF´s" sheetId="4" r:id="rId1"/>
+    <sheet name="HU´s" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="273">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1870,6 +1871,2634 @@
         <scheme val="minor"/>
       </rPr>
       <t>La base de datos debe permitir que el administrador consulte el contacto de un cliente para asi informarle de posibles altercados presentados durante el viaje</t>
+    </r>
+  </si>
+  <si>
+    <t>HISTORIA DE USUARIO</t>
+  </si>
+  <si>
+    <t>HU001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador quiero que la base de datos me permita inactivar o reactivar un conductor para cuando este no este disponible porque esta realizando un viaje, tiene incapacidad etc, esto con el fin de optimizar los funcionamientos de mi empresa</t>
+    </r>
+  </si>
+  <si>
+    <t>RQF040</t>
+  </si>
+  <si>
+    <t>HU002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo Como administrador, quiero agregar conductores al sistema para registrar su información importante. Ademas de que permita añadir conductores con datos relevantes como el número de contacto.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Criterios de Aceptacion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Se permite registrar al menos el nombre y número de contacto.
+- La información se almacena correctamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Criterios de Aceptacion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -Inactivar un cliente", -Tener la opcion de hacerlo con cualquier conductor que se desee, -no permitir asignar al conductor a nuevos viajes cuando este inactivo.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar conductor por ID único</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador o supervisor, quiero consultar conductores por su ID para revisar su estado y viajes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Criterios de Aceptacion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Se permite la búsqueda por ID único.
+- Se muestra el estado actual.
+- Se presenta el historial de viajes..</t>
+    </r>
+  </si>
+  <si>
+    <t>HU004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador o supervisor, quiero consultar la EPS de un conductor en caso de accidente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Criterios de Aceptacion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Se muestra el nombre de la EPS.
+- Se consulta por el ID del conductor.
+- Solo usuarios autorizados pueden acceder.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar EPS del conductor</t>
+    </r>
+  </si>
+  <si>
+    <t>HU005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Actualizar EPS del conductor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero actualizar la EPS de un conductor si cambia de entidad.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Criterios de Aceptacion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se actualiza la EPS con un nuevo valor.
+- Se guarda un log del cambio.
+- Solo administradores pueden editar.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero registrar viajes para llevar el control del número de viajes de un conductor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- El viaje se asigna al conductor.
+- El número de viajes se incrementa correctamente.
+- La base de datos guarda la información del nuevo viaje.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero actualizar el número de contacto de un conductor cuando cambie por pérdida o robo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se permite ingresar un nuevo número.
+- Se reemplaza el anterior.
+- El cambio se registra en la base de datos.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar viajes del conductor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Actualizar número del conductor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador o supervisor, quiero consultar los viajes de un conductor para conocer su rendimiento..</t>
+    </r>
+  </si>
+  <si>
+    <t>HU008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se muestra una lista detallada de viajes.
+- Incluye fecha, destino y duración.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar número de multas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador o supervisor, quiero consultar las multas de un conductor para saber cuántos errores ha cometido.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se listan todas las multas activas e históricas.
+- Se puede filtrar por tipo y fecha.
+- Incluye motivo y estado de la multa.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero actualizar las multas de un conductor para llevar un registro actualizado.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar duración del viaje</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se muestra duración exacta.
+- Puede consultarse por ID del viaje.
+- Aparece en reportes automáticos.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU012</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actualizar duración del viaje</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero actualizar la duración de un viaje si se presentan cambios.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Permite modificar el valor de duración.
+- El cambio se actualiza en el sistema.
+- Se registra quién lo modificó.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero cambiar la cantidad de escalas de un viaje para llevar un itinerario actualizado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se puede agregar o reducir escalas.
+- Se actualiza el total de escalas.
+- La información se refleja en los reportes.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU014</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero crear viajes con datos como duración, número de escalas y destino.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- El sistema permite ingresar todos los datos del viaje.
+- Se asigna automáticamente un ID.
+- El viaje queda registrado para su asignación.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU015</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar escalas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero consultar cuántas escalas tiene un viaje.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Criterios de Aceptacion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Se muestra número de escalas actuales.
+- Se permite búsqueda por ID de viaje.
+- Solo administradores pueden modificar.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregar vehículo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero registrar vehículos con datos como placa, color y valor de impuestos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se validan datos únicos como la placa.
+- El vehículo queda disponible para asignación.
+- Se puede editar más adelante.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU017</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero cambiar el estado de un vehículo a activo o inactivo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- El estado cambia correctamente.
+- Se refleja en la vista de disponibilidad.
+- Se notifica si un vehículo no está disponible.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador o supervisor, quiero ver la descripción de un vehículo para identificarlo fácilmente.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador o supervisor, quiero consultar el valor del impuesto de un vehículo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Muestra valor anual de impuestos.
+- Permite búsqueda por placa o ID.
+- Se puede exportar como informe.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Muestra marca, modelo y color.
+- Permite filtrar por atributos.
+- Información visible desde la ficha del cliente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cambiar estado del vehículo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar descripción del vehículo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar valor de impuestos</t>
+    </r>
+  </si>
+  <si>
+    <t>HU020</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Actualizar valor de impuestos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero actualizar el valor de los impuestos anualmente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se puede ingresar nuevo valor.
+- El sistema recalcula total automáticamente.
+- Se guarda historial de cambios.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador o supervisor, quiero consultar si el SOAT de un vehículo está vigente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se muestra estado vigente o vencido.
+- Permite ver fecha de vencimiento.
+- Disponible desde el panel del vehículo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar estado del SOAT</t>
+    </r>
+  </si>
+  <si>
+    <t>HU022</t>
+  </si>
+  <si>
+    <t>HU023</t>
+  </si>
+  <si>
+    <t>HU024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar valor de gasto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero consultar el valor de un gasto específico mediante su ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Permite búsqueda rápida por ID.
+- Muestra valor exacto y concepto.
+- Solo administradores pueden consultar.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero ver el detalle de un gasto en palabras.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar descripción del gasto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se muestra descripción completa.
+- Permite editar si es necesario.
+- Asociado a su factura.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU026</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador o supervisor, quiero saber el tipo de gasto de una factura.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se clasifica como combustible, peaje, etc.
+- Se puede filtrar por tipo.
+- Aparece agrupado en reportes..</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar tipo de gasto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero consultar toda la información de una factura.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU027</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Muestra conductor, cliente y valor total.
+- Permite imprimir o exportar.
+- Se puede revisar historial de ediciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU028</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero consultar cuáles son los clientes que más han pagado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se listan en orden de pagos.
+- Se actualiza con cada nueva factura.
+- Se pueden aplicar filtros por periodo.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU029</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero consultar viajes con duración mayor o igual a 24 horas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se listan automáticamente los viajes largos.
+- Pueden ordenarse por fecha.
+- Aparecen en reportes especiales.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU030</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero consultar si un conductor está disponible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se muestra estado actual del conductor.
+- Se actualiza automáticamente con viajes activos.
+- Visible en módulo de asignación.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU031</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero consultar a qué tipo pertenece un cliente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Clasificación: frecuente, esporádico o corporativo.
+- Se guarda automáticamente.
+- Se puede usar en campañas de fidelización.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU032</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar estado vehículo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar estado conductor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar conductores con multas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero ver conductores con múltiples infracciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se listan por número de multas.
+- Aparece total acumulado.
+- Se puede cruzar con viajes realizados.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU033</t>
+  </si>
+  <si>
+    <t>HU034</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar vehículos con más reparaciones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero ver qué vehículos han requerido más reparaciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se ordenan por cantidad de arreglos.
+- Aparece historial completo.
+- Útil para decidir reemplazo de flota.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU035</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero ver los conductores con mejor rendimiento.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se listan los que han hecho más viajes.
+- Aparece ranking.
+- Se excluyen los que tienen multas.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU036</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar viajes más frecuentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero ver los destinos más recorridos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se listan por frecuencia.
+- Útil para crear convenios con hoteles.
+- Disponible en dashboards.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU037</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero ver todos los gastos incluidos en una factura.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Aparecen todos los gastos detallados.
+- Permite ver comparación con ingresos.
+- Utilizado para análisis de utilidad.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU038</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar origen más común</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero saber desde qué ciudad se originan más viajes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se puede ver ciudad más común.
+- Usado para asignación de recursos.
+- Exportable como informe.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar gastos de factura</t>
+    </r>
+  </si>
+  <si>
+    <t>HU039</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero revisar los viajes de un conductor específico.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se listan todos sus viajes.
+- Incluye duración y destino.
+- Se puede auditar patrones de cobro.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar viajes de un conductor</t>
+    </r>
+  </si>
+  <si>
+    <t>HU040</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consultar contacto de cliente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero ver el contacto de un cliente por si ocurre algún incidente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Muestra teléfono y correo.
+- Solo visible a personal autorizado.
+- Se puede editar si cambia el contacto.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero consultar si un vehículo está en estado activo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se visualiza en color verde o rojo según el estado.
+- Sin necesidad de editar la ficha.
+- Refleja cambios de estado previos..</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mostrar factura completa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agregar reparaciones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yo como administrador, quiero registrar reparaciones realizadas a un vehículo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Criterios de Aceptacion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se ingresan detalles como fecha y tipo de reparación.
+- Se asocian al vehículo correspondiente.
+- El historial queda visible para auditoría.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cambiar escalas</t>
     </r>
   </si>
 </sst>
@@ -1877,7 +4506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1892,6 +4521,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2095,13 +4730,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2131,30 +4803,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2173,9 +4821,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2185,8 +4830,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2524,1521 +5199,1521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9679F028-CC7A-4492-BB0B-BB507BE7CC4E}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="G2" s="13" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="M2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="27" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="31" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="31" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="G7" s="13" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="M7" s="13" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="M7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="27" t="s">
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="31" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13" t="s">
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="13" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="M12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="27" t="s">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="27" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13" t="s">
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="M16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="G17" s="13" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="G17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="M17" s="13" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="M17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18" t="s">
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="27" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="18" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13" t="s">
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="13" t="s">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="M21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="G22" s="13" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="G22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="M22" s="13" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-    </row>
-    <row r="23" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="31" t="s">
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="27" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="31" t="s">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13" t="s">
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="13" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="M26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="G27" s="13" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
-      <c r="M27" s="13" t="s">
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+      <c r="M27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-    </row>
-    <row r="28" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="27" t="s">
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="18" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="31" t="s">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13" t="s">
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="13" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="13" t="s">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
       <c r="M31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="6"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="G32" s="13" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="G32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
-      <c r="M32" s="13" t="s">
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
+      <c r="M32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="9"/>
-    </row>
-    <row r="33" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="27" t="s">
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="22"/>
+    </row>
+    <row r="33" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="18" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="31" t="s">
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="11"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="9"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13" t="s">
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="22"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="13" t="s">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="12"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="25"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="G36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="2"/>
       <c r="M36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="28" t="s">
+      <c r="N36" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="19"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="G37" s="13" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="G37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="21" t="s">
+      <c r="M37" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="17"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="9"/>
-    </row>
-    <row r="38" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="27" t="s">
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="16"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="22"/>
+    </row>
+    <row r="38" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="27" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="18" t="s">
+      <c r="M38" s="27"/>
+      <c r="N38" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="20"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="9"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="13" t="s">
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="11"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="22"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="13" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="24" t="s">
+      <c r="M39" s="28"/>
+      <c r="N39" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="26"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="12"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="25"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
       <c r="L41" s="2"/>
       <c r="M41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="G42" s="13" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="G42" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="13" t="s">
+      <c r="M42" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-    </row>
-    <row r="43" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="18" t="s">
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="27" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="27" t="s">
+      <c r="M43" s="7"/>
+      <c r="N43" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13" t="s">
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="13" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="13" t="s">
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="G46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
       <c r="L46" s="2"/>
       <c r="M46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="N46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
-      <c r="G47" s="13" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="G47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="13" t="s">
+      <c r="M47" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="N47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-    </row>
-    <row r="48" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="18" t="s">
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="27" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="27" t="s">
+      <c r="M48" s="7"/>
+      <c r="N48" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="13" t="s">
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="13" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="13" t="s">
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
       <c r="G51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
       <c r="L51" s="2"/>
       <c r="M51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="N51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="G52" s="13" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="G52" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="16"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="13" t="s">
+      <c r="M52" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N52" s="14" t="s">
+      <c r="N52" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="18" t="s">
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="18" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="20"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="11"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="27" t="s">
+      <c r="M53" s="7"/>
+      <c r="N53" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="13" t="s">
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="13" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="13" t="s">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
       <c r="G56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
       <c r="L56" s="2"/>
       <c r="M56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
-      <c r="G57" s="13" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+      <c r="G57" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="17"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="16"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="13" t="s">
+      <c r="M57" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N57" s="14" t="s">
+      <c r="N57" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-    </row>
-    <row r="58" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="18" t="s">
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="18" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="11"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="27" t="s">
+      <c r="M58" s="7"/>
+      <c r="N58" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="13" t="s">
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="13" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="13" t="s">
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
       <c r="G61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
       <c r="L61" s="2"/>
       <c r="M61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="N61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="17"/>
-      <c r="G62" s="13" t="s">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="16"/>
+      <c r="G62" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="17"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="16"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="13" t="s">
+      <c r="M62" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="N62" s="14" t="s">
+      <c r="N62" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-    </row>
-    <row r="63" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="18" t="s">
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+    </row>
+    <row r="63" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="18" t="s">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="20"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="11"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="27" t="s">
+      <c r="M63" s="7"/>
+      <c r="N63" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="13" t="s">
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="13" t="s">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="13" t="s">
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
       <c r="G66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
       <c r="L66" s="2"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="17"/>
-      <c r="G67" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H67" s="15" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="16"/>
+      <c r="G67" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="17"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="16"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-    </row>
-    <row r="68" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="18" t="s">
+      <c r="M67" s="6"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+    </row>
+    <row r="68" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="18" t="s">
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="20"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="11"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="13" t="s">
+      <c r="M68" s="7"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="13" t="s">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="212">
@@ -4132,15 +6807,6 @@
     <mergeCell ref="M42:M44"/>
     <mergeCell ref="N42:Q42"/>
     <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="N36:Q36"/>
     <mergeCell ref="S36:W39"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="B37:E37"/>
@@ -4154,6 +6820,15 @@
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="N36:Q36"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="N31:Q31"/>
@@ -4257,4 +6932,1694 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE68D16-820D-4DAA-BB78-01F1D31AC9B0}">
+  <dimension ref="A1:AC39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J29" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="S1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="Y1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+    </row>
+    <row r="2" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="G2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="M2" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="S2" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="Y2" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z2" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+    </row>
+    <row r="3" spans="1:29" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="41"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" s="41"/>
+      <c r="V3" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" s="41"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC3" s="41"/>
+    </row>
+    <row r="4" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="G6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="M6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="S6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="Y6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+    </row>
+    <row r="7" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="G7" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="M7" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="S7" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="Y7" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+    </row>
+    <row r="8" spans="1:29" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="41"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" s="41"/>
+      <c r="P8" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="41"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="U8" s="41"/>
+      <c r="V8" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="W8" s="41"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC8" s="41"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="G11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="M11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="S11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="Y11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="G12" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="M12" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="S12" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="Y12" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z12" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+    </row>
+    <row r="13" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="41"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="41"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="U13" s="41"/>
+      <c r="V13" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="W13" s="41"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC13" s="41"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="M16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="S16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="Y16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+    </row>
+    <row r="17" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="G17" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="M17" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="S17" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="Y17" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z17" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+    </row>
+    <row r="18" spans="1:29" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="41"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" s="41"/>
+      <c r="P18" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q18" s="41"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="U18" s="41"/>
+      <c r="V18" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="W18" s="41"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC18" s="41"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="G21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="M21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="S21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="Y21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="G22" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="M22" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="S22" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="Y22" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z22" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+    </row>
+    <row r="23" spans="1:29" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="J23" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="41"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="O23" s="41"/>
+      <c r="P23" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q23" s="41"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="U23" s="41"/>
+      <c r="V23" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="W23" s="41"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC23" s="41"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="G26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="M26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="S26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="Y26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="G27" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="M27" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="S27" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="T27" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="Y27" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z27" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+    </row>
+    <row r="28" spans="1:29" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" s="41"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" s="41"/>
+      <c r="P28" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q28" s="41"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="U28" s="41"/>
+      <c r="V28" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="W28" s="41"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC28" s="41"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="G31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="M31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="S31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="Y31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="G32" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="M32" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="N32" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="S32" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="T32" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="Y32" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+    </row>
+    <row r="33" spans="1:29" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" s="41"/>
+      <c r="P33" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q33" s="41"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="U33" s="41"/>
+      <c r="V33" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="W33" s="41"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC33" s="41"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="G36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="M36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="S36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T36" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="Y36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="G37" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="M37" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="N37" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="S37" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="T37" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="Y37" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z37" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+    </row>
+    <row r="38" spans="1:29" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="K38" s="41"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="O38" s="41"/>
+      <c r="P38" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q38" s="41"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="U38" s="41"/>
+      <c r="V38" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="W38" s="41"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC38" s="41"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="240">
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="S37:S39"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="Y37:Y39"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="Z39:AC39"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="Y27:Y29"/>
+    <mergeCell ref="Z27:AC27"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="Y22:Y24"/>
+    <mergeCell ref="Z22:AC22"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="S22:S24"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Y7:Y9"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T19:W19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>